--- a/Ballst_te1_result1.xlsx
+++ b/Ballst_te1_result1.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>weight</t>
+  </si>
   <si>
     <t>apogee</t>
   </si>
@@ -380,13 +383,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -396,33 +399,1028 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>-0.6106604373876303</v>
       </c>
       <c r="D2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.462959251937256</v>
+      </c>
+      <c r="E2">
+        <v>1.589501208428509</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>-0.6000461052371768</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.4209866177839572</v>
+      </c>
+      <c r="E3">
+        <v>1.608076765210655</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.08</v>
+      </c>
+      <c r="C4">
+        <v>-0.5894271198434065</v>
+      </c>
+      <c r="D4">
+        <v>0.3782015852024327</v>
+      </c>
+      <c r="E4">
+        <v>1.626591399859962</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.12</v>
+      </c>
+      <c r="C5">
+        <v>-0.5788416193310663</v>
+      </c>
+      <c r="D5">
+        <v>0.3344451173103661</v>
+      </c>
+      <c r="E5">
+        <v>1.645045384522467</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.16</v>
+      </c>
+      <c r="C6">
+        <v>-0.5681282951201793</v>
+      </c>
+      <c r="D6">
+        <v>0.2893805712554683</v>
+      </c>
+      <c r="E6">
+        <v>1.66343899006859</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.2</v>
+      </c>
+      <c r="C7">
+        <v>-0.5585142930739717</v>
+      </c>
+      <c r="D7">
+        <v>0.2491974443814886</v>
+      </c>
+      <c r="E7">
+        <v>1.68177248609474</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.24</v>
+      </c>
+      <c r="C8">
+        <v>-0.5499222048872453</v>
+      </c>
+      <c r="D8">
+        <v>0.2141640469601666</v>
+      </c>
+      <c r="E8">
+        <v>1.70004614092508</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.28</v>
+      </c>
+      <c r="C9">
+        <v>-0.5398349342091138</v>
+      </c>
+      <c r="D9">
+        <v>0.1711036932811771</v>
+      </c>
+      <c r="E9">
+        <v>1.718260221613404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.32</v>
+      </c>
+      <c r="C10">
+        <v>-0.5314608903315893</v>
+      </c>
+      <c r="D10">
+        <v>0.1379366334926595</v>
+      </c>
+      <c r="E10">
+        <v>1.736414993945206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.36</v>
+      </c>
+      <c r="C11">
+        <v>-0.52271150494402</v>
+      </c>
+      <c r="D11">
+        <v>0.1027580497823541</v>
+      </c>
+      <c r="E11">
+        <v>1.754510722439826</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.4</v>
+      </c>
+      <c r="C12">
+        <v>-0.5107303751518687</v>
+      </c>
+      <c r="D12">
+        <v>0.06797183790208657</v>
+      </c>
+      <c r="E12">
+        <v>1.772547670352776</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.44</v>
+      </c>
+      <c r="C13">
+        <v>-0.5012011857647045</v>
+      </c>
+      <c r="D13">
+        <v>0.03211924406753295</v>
+      </c>
+      <c r="E13">
+        <v>1.790526099678144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.48</v>
+      </c>
+      <c r="C14">
+        <v>-0.4939890635823969</v>
+      </c>
+      <c r="D14">
+        <v>0.002384326691518529</v>
+      </c>
+      <c r="E14">
+        <v>1.808446271151158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.52</v>
+      </c>
+      <c r="C15">
+        <v>-0.4868706652451746</v>
+      </c>
+      <c r="D15">
+        <v>0.0360103760616713</v>
+      </c>
+      <c r="E15">
+        <v>1.826308444250836</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="C16">
+        <v>-0.4760265814751899</v>
+      </c>
+      <c r="D16">
+        <v>0.070555078769111</v>
+      </c>
+      <c r="E16">
+        <v>1.84411287720277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.6</v>
+      </c>
+      <c r="C17">
+        <v>-0.4656333666205238</v>
+      </c>
+      <c r="D17">
+        <v>0.1015922267833529</v>
+      </c>
+      <c r="E17">
+        <v>1.861859826982004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.64</v>
+      </c>
+      <c r="C18">
+        <v>-0.4551783054498423</v>
+      </c>
+      <c r="D18">
+        <v>0.1344593466325367</v>
+      </c>
+      <c r="E18">
+        <v>1.879549549316016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0.68</v>
+      </c>
+      <c r="C19">
+        <v>-0.4448742124190998</v>
+      </c>
+      <c r="D19">
+        <v>0.1629515480331654</v>
+      </c>
+      <c r="E19">
+        <v>1.897182298687817</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.72</v>
+      </c>
+      <c r="C20">
+        <v>-0.4346798273428065</v>
+      </c>
+      <c r="D20">
+        <v>0.1959813187362175</v>
+      </c>
+      <c r="E20">
+        <v>1.914758328339123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.76</v>
+      </c>
+      <c r="C21">
+        <v>-0.4250591472484234</v>
+      </c>
+      <c r="D21">
+        <v>0.2261500086030778</v>
+      </c>
+      <c r="E21">
+        <v>1.93227789027363</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.8</v>
+      </c>
+      <c r="C22">
+        <v>-0.4117921307108907</v>
+      </c>
+      <c r="D22">
+        <v>0.250366896990421</v>
+      </c>
+      <c r="E22">
+        <v>1.949741235260384</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.84</v>
+      </c>
+      <c r="C23">
+        <v>-0.4000765132901554</v>
+      </c>
+      <c r="D23">
+        <v>0.2770292841122714</v>
+      </c>
+      <c r="E23">
+        <v>1.967148612837238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.88</v>
+      </c>
+      <c r="C24">
+        <v>-0.3873399423635161</v>
+      </c>
+      <c r="D24">
+        <v>0.3082705132214411</v>
+      </c>
+      <c r="E24">
+        <v>1.984500271314367</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.92</v>
+      </c>
+      <c r="C25">
+        <v>-0.375161450907041</v>
+      </c>
+      <c r="D25">
+        <v>0.341361496279719</v>
+      </c>
+      <c r="E25">
+        <v>2.001796457777901</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.96</v>
+      </c>
+      <c r="C26">
+        <v>-0.3616897093161269</v>
+      </c>
+      <c r="D26">
+        <v>0.3703143505739085</v>
+      </c>
+      <c r="E26">
+        <v>2.019037418093601</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>-0.3475355447842915</v>
+      </c>
+      <c r="D27">
+        <v>0.4017326712336141</v>
+      </c>
+      <c r="E27">
+        <v>2.03622339691063</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>1.04</v>
+      </c>
+      <c r="C28">
+        <v>-0.3334677884358238</v>
+      </c>
+      <c r="D28">
+        <v>0.4342612819608287</v>
+      </c>
+      <c r="E28">
+        <v>2.053354637665381</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>1.08</v>
+      </c>
+      <c r="C29">
+        <v>-0.3149968037058654</v>
+      </c>
+      <c r="D29">
+        <v>0.4657898921901434</v>
+      </c>
+      <c r="E29">
+        <v>2.070431382585379</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>1.12</v>
+      </c>
+      <c r="C30">
+        <v>-0.3016776138673726</v>
+      </c>
+      <c r="D30">
+        <v>0.5013238070733677</v>
+      </c>
+      <c r="E30">
+        <v>2.087453872693245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>1.16</v>
+      </c>
+      <c r="C31">
+        <v>-0.2840976171840439</v>
+      </c>
+      <c r="D31">
+        <v>0.5373654052764937</v>
+      </c>
+      <c r="E31">
+        <v>2.104422347810734</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>1.2</v>
+      </c>
+      <c r="C32">
+        <v>-0.2650156418366328</v>
+      </c>
+      <c r="D32">
+        <v>0.5753270731241058</v>
+      </c>
+      <c r="E32">
+        <v>2.121337046562798</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>1.24</v>
+      </c>
+      <c r="C33">
+        <v>-0.2453462853009218</v>
+      </c>
+      <c r="D33">
+        <v>0.6144132118461394</v>
+      </c>
+      <c r="E33">
+        <v>2.138198206381758</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>1.28</v>
+      </c>
+      <c r="C34">
+        <v>-0.2244125364454151</v>
+      </c>
+      <c r="D34">
+        <v>0.6547064094667225</v>
+      </c>
+      <c r="E34">
+        <v>2.155006063511488</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>1.32</v>
+      </c>
+      <c r="C35">
+        <v>-0.2027970918436107</v>
+      </c>
+      <c r="D35">
+        <v>0.6952302503850789</v>
+      </c>
+      <c r="E35">
+        <v>2.171760853011654</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>1.36</v>
+      </c>
+      <c r="C36">
+        <v>-0.1673589372252469</v>
+      </c>
+      <c r="D36">
+        <v>0.7519126057139536</v>
+      </c>
+      <c r="E36">
+        <v>2.188462808762036</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>1.4</v>
+      </c>
+      <c r="C37">
+        <v>-0.1557044301533634</v>
+      </c>
+      <c r="D37">
+        <v>0.7767575791845721</v>
+      </c>
+      <c r="E37">
+        <v>2.205112163466867</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>1.44</v>
+      </c>
+      <c r="C38">
+        <v>-0.1308827018184371</v>
+      </c>
+      <c r="D38">
+        <v>0.8159012950497512</v>
+      </c>
+      <c r="E38">
+        <v>2.221709148659217</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>1.48</v>
+      </c>
+      <c r="C39">
+        <v>-0.1056741193632518</v>
+      </c>
+      <c r="D39">
+        <v>0.8527213147841094</v>
+      </c>
+      <c r="E39">
+        <v>2.238253994705434</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>1.52</v>
+      </c>
+      <c r="C40">
+        <v>-0.07881281892782072</v>
+      </c>
+      <c r="D40">
+        <v>0.8880175557397181</v>
+      </c>
+      <c r="E40">
+        <v>2.254746930809626</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>1.56</v>
+      </c>
+      <c r="C41">
+        <v>-0.05119558687640528</v>
+      </c>
+      <c r="D41">
+        <v>0.9202240855205985</v>
+      </c>
+      <c r="E41">
+        <v>2.271188185018167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>1.6</v>
+      </c>
+      <c r="C42">
+        <v>-0.02141072666502485</v>
+      </c>
+      <c r="D42">
+        <v>0.9494325515713347</v>
+      </c>
+      <c r="E42">
+        <v>2.287577984224258</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>1.64</v>
+      </c>
+      <c r="C43">
+        <v>0.008845660714542358</v>
+      </c>
+      <c r="D43">
+        <v>0.9734129234943113</v>
+      </c>
+      <c r="E43">
+        <v>2.303916554172502</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>1.68</v>
+      </c>
+      <c r="C44">
+        <v>0.04246340917334196</v>
+      </c>
+      <c r="D44">
+        <v>0.9921571847338733</v>
+      </c>
+      <c r="E44">
+        <v>2.320204119463541</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>1.72</v>
+      </c>
+      <c r="C45">
+        <v>0.07734998554809426</v>
+      </c>
+      <c r="D45">
+        <v>1.002384326691518</v>
+      </c>
+      <c r="E45">
+        <v>2.336440903558695</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>1.76</v>
+      </c>
+      <c r="C46">
+        <v>0.1150894003715225</v>
+      </c>
+      <c r="D46">
+        <v>1.001224579623399</v>
+      </c>
+      <c r="E46">
+        <v>2.352627128784648</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>1.8</v>
+      </c>
+      <c r="C47">
+        <v>0.156379419228042</v>
+      </c>
+      <c r="D47">
+        <v>0.9831192298619327</v>
+      </c>
+      <c r="E47">
+        <v>2.368763016338156</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>1.84</v>
+      </c>
+      <c r="C48">
+        <v>0.2013534063694225</v>
+      </c>
+      <c r="D48">
+        <v>0.9396986037413558</v>
+      </c>
+      <c r="E48">
+        <v>2.384848786290783</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>1.88</v>
+      </c>
+      <c r="C49">
+        <v>0.2498311476269609</v>
+      </c>
+      <c r="D49">
+        <v>0.8574208958558392</v>
+      </c>
+      <c r="E49">
+        <v>2.400884657593672</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>1.92</v>
+      </c>
+      <c r="C50">
+        <v>0.297447339374858</v>
+      </c>
+      <c r="D50">
+        <v>0.7276021427701999</v>
+      </c>
+      <c r="E50">
+        <v>2.416870848082312</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>1.96</v>
+      </c>
+      <c r="C51">
+        <v>0.3396299491007094</v>
+      </c>
+      <c r="D51">
+        <v>0.5463571433564075</v>
+      </c>
+      <c r="E51">
+        <v>2.43280757448135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>0.3690966100615774</v>
+      </c>
+      <c r="D52">
+        <v>0.3402572493070816</v>
+      </c>
+      <c r="E52">
+        <v>2.448695052409422</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>2.04</v>
+      </c>
+      <c r="C53">
+        <v>0.3830720285379229</v>
+      </c>
+      <c r="D53">
+        <v>0.1696416643763511</v>
+      </c>
+      <c r="E53">
+        <v>2.464533496383993</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>2.08</v>
+      </c>
+      <c r="C54">
+        <v>0.3880749286519623</v>
+      </c>
+      <c r="D54">
+        <v>0.05093438162568271</v>
+      </c>
+      <c r="E54">
+        <v>2.480323119826219</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>2.12</v>
+      </c>
+      <c r="C55">
+        <v>0.3893395626123697</v>
+      </c>
+      <c r="D55">
+        <v>0.03100179019766491</v>
+      </c>
+      <c r="E55">
+        <v>2.496064135065826</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>2.16</v>
+      </c>
+      <c r="C56">
+        <v>0.3890546440239031</v>
+      </c>
+      <c r="D56">
+        <v>0.08722245570473453</v>
+      </c>
+      <c r="E56">
+        <v>2.511756753345997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>2.2</v>
+      </c>
+      <c r="C57">
+        <v>0.388196270067404</v>
+      </c>
+      <c r="D57">
+        <v>0.1207184461155992</v>
+      </c>
+      <c r="E57">
+        <v>2.527401184828296</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>2.24</v>
+      </c>
+      <c r="C58">
+        <v>0.3872786406312727</v>
+      </c>
+      <c r="D58">
+        <v>0.1429555651346583</v>
+      </c>
+      <c r="E58">
+        <v>2.542997638597562</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>2.28</v>
+      </c>
+      <c r="C59">
+        <v>0.3863118307902931</v>
+      </c>
+      <c r="D59">
+        <v>0.1583409839235094</v>
+      </c>
+      <c r="E59">
+        <v>2.558546322666857</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>2.32</v>
+      </c>
+      <c r="C60">
+        <v>0.385424493842431</v>
+      </c>
+      <c r="D60">
+        <v>0.1675229232359925</v>
+      </c>
+      <c r="E60">
+        <v>2.574047443982397</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>2.36</v>
+      </c>
+      <c r="C61">
+        <v>0.3845680118064004</v>
+      </c>
+      <c r="D61">
+        <v>0.1739659153463057</v>
+      </c>
+      <c r="E61">
+        <v>2.589501208428509</v>
       </c>
     </row>
   </sheetData>

--- a/Ballst_te1_result1.xlsx
+++ b/Ballst_te1_result1.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="C2">
-        <v>-0.6106604373876303</v>
+        <v>-0.8896979434179941</v>
       </c>
       <c r="D2">
-        <v>0.462959251937256</v>
+        <v>0.4173305679987264</v>
       </c>
       <c r="E2">
-        <v>1.589501208428509</v>
+        <v>304.1285636475517</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -425,16 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.04</v>
+        <v>1.24</v>
       </c>
       <c r="C3">
-        <v>-0.6000461052371768</v>
+        <v>-0.8694580313438856</v>
       </c>
       <c r="D3">
-        <v>0.4209866177839572</v>
+        <v>0.4537254437909884</v>
       </c>
       <c r="E3">
-        <v>1.608076765210655</v>
+        <v>305.9238709720116</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -442,16 +442,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.08</v>
+        <v>1.28</v>
       </c>
       <c r="C4">
-        <v>-0.5894271198434065</v>
+        <v>-0.8496870765321619</v>
       </c>
       <c r="D4">
-        <v>0.3782015852024327</v>
+        <v>0.4880560476588495</v>
       </c>
       <c r="E4">
-        <v>1.626591399859962</v>
+        <v>307.7126563229032</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -459,16 +459,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.12</v>
+        <v>1.32</v>
       </c>
       <c r="C5">
-        <v>-0.5788416193310663</v>
+        <v>-0.8275281090282424</v>
       </c>
       <c r="D5">
-        <v>0.3344451173103661</v>
+        <v>0.5158627516532984</v>
       </c>
       <c r="E5">
-        <v>1.645045384522467</v>
+        <v>309.4949555365341</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -476,16 +476,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.16</v>
+        <v>1.36</v>
       </c>
       <c r="C6">
-        <v>-0.5681282951201793</v>
+        <v>-0.8054441854797665</v>
       </c>
       <c r="D6">
-        <v>0.2893805712554683</v>
+        <v>0.5491127496507441</v>
       </c>
       <c r="E6">
-        <v>1.66343899006859</v>
+        <v>311.2708041848755</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -493,16 +493,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="C7">
-        <v>-0.5585142930739717</v>
+        <v>-0.7819483799153046</v>
       </c>
       <c r="D7">
-        <v>0.2491974443814886</v>
+        <v>0.5809006530320269</v>
       </c>
       <c r="E7">
-        <v>1.68177248609474</v>
+        <v>313.0402375780106</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -510,16 +510,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.24</v>
+        <v>1.44</v>
       </c>
       <c r="C8">
-        <v>-0.5499222048872453</v>
+        <v>-0.7569391479278543</v>
       </c>
       <c r="D8">
-        <v>0.2141640469601666</v>
+        <v>0.6124798590140949</v>
       </c>
       <c r="E8">
-        <v>1.70004614092508</v>
+        <v>314.8032907665569</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.28</v>
+        <v>1.48</v>
       </c>
       <c r="C9">
-        <v>-0.5398349342091138</v>
+        <v>-0.7339914065336546</v>
       </c>
       <c r="D9">
-        <v>0.1711036932811771</v>
+        <v>0.648034206009074</v>
       </c>
       <c r="E9">
-        <v>1.718260221613404</v>
+        <v>316.5599985440613</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -544,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.32</v>
+        <v>1.52</v>
       </c>
       <c r="C10">
-        <v>-0.5314608903315893</v>
+        <v>-0.7081165778281995</v>
       </c>
       <c r="D10">
-        <v>0.1379366334926595</v>
+        <v>0.6827379237430881</v>
       </c>
       <c r="E10">
-        <v>1.736414993945206</v>
+        <v>318.3103954493681</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -561,16 +561,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.36</v>
+        <v>1.56</v>
       </c>
       <c r="C11">
-        <v>-0.52271150494402</v>
+        <v>-0.6798092006641711</v>
       </c>
       <c r="D11">
-        <v>0.1027580497823541</v>
+        <v>0.719235134187823</v>
       </c>
       <c r="E11">
-        <v>1.754510722439826</v>
+        <v>320.0545157689611</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -578,16 +578,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="C12">
-        <v>-0.5107303751518687</v>
+        <v>-0.652670616175671</v>
       </c>
       <c r="D12">
-        <v>0.06797183790208657</v>
+        <v>0.7563996664703082</v>
       </c>
       <c r="E12">
-        <v>1.772547670352776</v>
+        <v>321.7923935392814</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -595,16 +595,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.44</v>
+        <v>1.64</v>
       </c>
       <c r="C13">
-        <v>-0.5012011857647045</v>
+        <v>-0.6206411376848414</v>
       </c>
       <c r="D13">
-        <v>0.03211924406753295</v>
+        <v>0.7959962037937501</v>
       </c>
       <c r="E13">
-        <v>1.790526099678144</v>
+        <v>323.5240625490153</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -612,16 +612,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.48</v>
+        <v>1.68</v>
       </c>
       <c r="C14">
-        <v>-0.4939890635823969</v>
+        <v>-0.5917616469846548</v>
       </c>
       <c r="D14">
-        <v>0.002384326691518529</v>
+        <v>0.8349063886505922</v>
       </c>
       <c r="E14">
-        <v>1.808446271151158</v>
+        <v>325.2495563413618</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -629,16 +629,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.52</v>
+        <v>1.72</v>
       </c>
       <c r="C15">
-        <v>-0.4868706652451746</v>
+        <v>-0.5590175107024771</v>
       </c>
       <c r="D15">
-        <v>0.0360103760616713</v>
+        <v>0.8760038811741303</v>
       </c>
       <c r="E15">
-        <v>1.826308444250836</v>
+        <v>326.9689082162736</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -646,16 +646,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5600000000000001</v>
+        <v>1.76</v>
       </c>
       <c r="C16">
-        <v>-0.4760265814751899</v>
+        <v>-0.5266726115253206</v>
       </c>
       <c r="D16">
-        <v>0.070555078769111</v>
+        <v>0.9168953038388737</v>
       </c>
       <c r="E16">
-        <v>1.84411287720277</v>
+        <v>328.6821512326692</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -663,16 +663,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="C17">
-        <v>-0.4656333666205238</v>
+        <v>-0.4922533117189621</v>
       </c>
       <c r="D17">
-        <v>0.1015922267833529</v>
+        <v>0.9587169224498929</v>
       </c>
       <c r="E17">
-        <v>1.861859826982004</v>
+        <v>330.3893182106297</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,16 +680,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.64</v>
+        <v>1.84</v>
       </c>
       <c r="C18">
-        <v>-0.4551783054498423</v>
+        <v>-0.4564529733604316</v>
       </c>
       <c r="D18">
-        <v>0.1344593466325367</v>
+        <v>1.000925819929473</v>
       </c>
       <c r="E18">
-        <v>1.879549549316016</v>
+        <v>332.0904417335626</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -697,16 +697,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.68</v>
+        <v>1.88</v>
       </c>
       <c r="C19">
-        <v>-0.4448742124190998</v>
+        <v>-0.4205815079266963</v>
       </c>
       <c r="D19">
-        <v>0.1629515480331654</v>
+        <v>1.042124515126769</v>
       </c>
       <c r="E19">
-        <v>1.897182298687817</v>
+        <v>333.7855541503467</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -714,16 +714,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.72</v>
+        <v>1.92</v>
       </c>
       <c r="C20">
-        <v>-0.4346798273428065</v>
+        <v>-0.3819609444613398</v>
       </c>
       <c r="D20">
-        <v>0.1959813187362175</v>
+        <v>1.084212210694614</v>
       </c>
       <c r="E20">
-        <v>1.914758328339123</v>
+        <v>335.4746875774539</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -731,16 +731,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.76</v>
+        <v>1.96</v>
       </c>
       <c r="C21">
-        <v>-0.4250591472484234</v>
+        <v>-0.3443374855900388</v>
       </c>
       <c r="D21">
-        <v>0.2261500086030778</v>
+        <v>1.123946425608798</v>
       </c>
       <c r="E21">
-        <v>1.93227789027363</v>
+        <v>337.1578739010449</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -748,16 +748,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>-0.4117921307108907</v>
+        <v>-0.3048707969747584</v>
       </c>
       <c r="D22">
-        <v>0.250366896990421</v>
+        <v>1.163296078191105</v>
       </c>
       <c r="E22">
-        <v>1.949741235260384</v>
+        <v>338.8351447790445</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -765,16 +765,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.84</v>
+        <v>2.04</v>
       </c>
       <c r="C23">
-        <v>-0.4000765132901554</v>
+        <v>-0.2658749004058384</v>
       </c>
       <c r="D23">
-        <v>0.2770292841122714</v>
+        <v>1.20016295884802</v>
       </c>
       <c r="E23">
-        <v>1.967148612837238</v>
+        <v>340.5065316431944</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -782,16 +782,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.88</v>
+        <v>2.08</v>
       </c>
       <c r="C24">
-        <v>-0.3873399423635161</v>
+        <v>-0.2243761676805841</v>
       </c>
       <c r="D24">
-        <v>0.3082705132214411</v>
+        <v>1.236531042908166</v>
       </c>
       <c r="E24">
-        <v>1.984500271314367</v>
+        <v>342.1720657010829</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -799,16 +799,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.92</v>
+        <v>2.12</v>
       </c>
       <c r="C25">
-        <v>-0.375161450907041</v>
+        <v>-0.1814483344511995</v>
       </c>
       <c r="D25">
-        <v>0.341361496279719</v>
+        <v>1.271231781303442</v>
       </c>
       <c r="E25">
-        <v>2.001796457777901</v>
+        <v>343.8317779381518</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -816,16 +816,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.96</v>
+        <v>2.16</v>
       </c>
       <c r="C26">
-        <v>-0.3616897093161269</v>
+        <v>-0.1388731404556886</v>
       </c>
       <c r="D26">
-        <v>0.3703143505739085</v>
+        <v>1.302835763307977</v>
       </c>
       <c r="E26">
-        <v>2.019037418093601</v>
+        <v>345.485699119685</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -833,16 +833,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="C27">
-        <v>-0.3475355447842915</v>
+        <v>-0.09394069285013562</v>
       </c>
       <c r="D27">
-        <v>0.4017326712336141</v>
+        <v>1.332601579833961</v>
       </c>
       <c r="E27">
-        <v>2.03622339691063</v>
+        <v>347.1338597927715</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -850,16 +850,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.04</v>
+        <v>2.24</v>
       </c>
       <c r="C28">
-        <v>-0.3334677884358238</v>
+        <v>-0.04309605915790642</v>
       </c>
       <c r="D28">
-        <v>0.4342612819608287</v>
+        <v>1.361239620676662</v>
       </c>
       <c r="E28">
-        <v>2.053354637665381</v>
+        <v>348.7762902882508</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -867,16 +867,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.08</v>
+        <v>2.28</v>
       </c>
       <c r="C29">
-        <v>-0.3149968037058654</v>
+        <v>0.004364406127633564</v>
       </c>
       <c r="D29">
-        <v>0.4657898921901434</v>
+        <v>1.384106828775967</v>
       </c>
       <c r="E29">
-        <v>2.070431382585379</v>
+        <v>350.4130207226349</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -884,16 +884,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.12</v>
+        <v>2.32</v>
       </c>
       <c r="C30">
-        <v>-0.3016776138673726</v>
+        <v>0.05570738463236335</v>
       </c>
       <c r="D30">
-        <v>0.5013238070733677</v>
+        <v>1.403339181942888</v>
       </c>
       <c r="E30">
-        <v>2.087453872693245</v>
+        <v>352.0440810000111</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -901,526 +901,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.16</v>
+        <v>2.36</v>
       </c>
       <c r="C31">
-        <v>-0.2840976171840439</v>
+        <v>0.1103020565820058</v>
       </c>
       <c r="D31">
-        <v>0.5373654052764937</v>
+        <v>1.417330567998726</v>
       </c>
       <c r="E31">
-        <v>2.104422347810734</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>1.2</v>
-      </c>
-      <c r="C32">
-        <v>-0.2650156418366328</v>
-      </c>
-      <c r="D32">
-        <v>0.5753270731241058</v>
-      </c>
-      <c r="E32">
-        <v>2.121337046562798</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>1.24</v>
-      </c>
-      <c r="C33">
-        <v>-0.2453462853009218</v>
-      </c>
-      <c r="D33">
-        <v>0.6144132118461394</v>
-      </c>
-      <c r="E33">
-        <v>2.138198206381758</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>1.28</v>
-      </c>
-      <c r="C34">
-        <v>-0.2244125364454151</v>
-      </c>
-      <c r="D34">
-        <v>0.6547064094667225</v>
-      </c>
-      <c r="E34">
-        <v>2.155006063511488</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>1.32</v>
-      </c>
-      <c r="C35">
-        <v>-0.2027970918436107</v>
-      </c>
-      <c r="D35">
-        <v>0.6952302503850789</v>
-      </c>
-      <c r="E35">
-        <v>2.171760853011654</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>1.36</v>
-      </c>
-      <c r="C36">
-        <v>-0.1673589372252469</v>
-      </c>
-      <c r="D36">
-        <v>0.7519126057139536</v>
-      </c>
-      <c r="E36">
-        <v>2.188462808762036</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>1.4</v>
-      </c>
-      <c r="C37">
-        <v>-0.1557044301533634</v>
-      </c>
-      <c r="D37">
-        <v>0.7767575791845721</v>
-      </c>
-      <c r="E37">
-        <v>2.205112163466867</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>1.44</v>
-      </c>
-      <c r="C38">
-        <v>-0.1308827018184371</v>
-      </c>
-      <c r="D38">
-        <v>0.8159012950497512</v>
-      </c>
-      <c r="E38">
-        <v>2.221709148659217</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>1.48</v>
-      </c>
-      <c r="C39">
-        <v>-0.1056741193632518</v>
-      </c>
-      <c r="D39">
-        <v>0.8527213147841094</v>
-      </c>
-      <c r="E39">
-        <v>2.238253994705434</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>1.52</v>
-      </c>
-      <c r="C40">
-        <v>-0.07881281892782072</v>
-      </c>
-      <c r="D40">
-        <v>0.8880175557397181</v>
-      </c>
-      <c r="E40">
-        <v>2.254746930809626</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>1.56</v>
-      </c>
-      <c r="C41">
-        <v>-0.05119558687640528</v>
-      </c>
-      <c r="D41">
-        <v>0.9202240855205985</v>
-      </c>
-      <c r="E41">
-        <v>2.271188185018167</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>1.6</v>
-      </c>
-      <c r="C42">
-        <v>-0.02141072666502485</v>
-      </c>
-      <c r="D42">
-        <v>0.9494325515713347</v>
-      </c>
-      <c r="E42">
-        <v>2.287577984224258</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>1.64</v>
-      </c>
-      <c r="C43">
-        <v>0.008845660714542358</v>
-      </c>
-      <c r="D43">
-        <v>0.9734129234943113</v>
-      </c>
-      <c r="E43">
-        <v>2.303916554172502</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>1.68</v>
-      </c>
-      <c r="C44">
-        <v>0.04246340917334196</v>
-      </c>
-      <c r="D44">
-        <v>0.9921571847338733</v>
-      </c>
-      <c r="E44">
-        <v>2.320204119463541</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>1.72</v>
-      </c>
-      <c r="C45">
-        <v>0.07734998554809426</v>
-      </c>
-      <c r="D45">
-        <v>1.002384326691518</v>
-      </c>
-      <c r="E45">
-        <v>2.336440903558695</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>1.76</v>
-      </c>
-      <c r="C46">
-        <v>0.1150894003715225</v>
-      </c>
-      <c r="D46">
-        <v>1.001224579623399</v>
-      </c>
-      <c r="E46">
-        <v>2.352627128784648</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>1.8</v>
-      </c>
-      <c r="C47">
-        <v>0.156379419228042</v>
-      </c>
-      <c r="D47">
-        <v>0.9831192298619327</v>
-      </c>
-      <c r="E47">
-        <v>2.368763016338156</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>1.84</v>
-      </c>
-      <c r="C48">
-        <v>0.2013534063694225</v>
-      </c>
-      <c r="D48">
-        <v>0.9396986037413558</v>
-      </c>
-      <c r="E48">
-        <v>2.384848786290783</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>1.88</v>
-      </c>
-      <c r="C49">
-        <v>0.2498311476269609</v>
-      </c>
-      <c r="D49">
-        <v>0.8574208958558392</v>
-      </c>
-      <c r="E49">
-        <v>2.400884657593672</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>1.92</v>
-      </c>
-      <c r="C50">
-        <v>0.297447339374858</v>
-      </c>
-      <c r="D50">
-        <v>0.7276021427701999</v>
-      </c>
-      <c r="E50">
-        <v>2.416870848082312</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>1.96</v>
-      </c>
-      <c r="C51">
-        <v>0.3396299491007094</v>
-      </c>
-      <c r="D51">
-        <v>0.5463571433564075</v>
-      </c>
-      <c r="E51">
-        <v>2.43280757448135</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>2</v>
-      </c>
-      <c r="C52">
-        <v>0.3690966100615774</v>
-      </c>
-      <c r="D52">
-        <v>0.3402572493070816</v>
-      </c>
-      <c r="E52">
-        <v>2.448695052409422</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>2.04</v>
-      </c>
-      <c r="C53">
-        <v>0.3830720285379229</v>
-      </c>
-      <c r="D53">
-        <v>0.1696416643763511</v>
-      </c>
-      <c r="E53">
-        <v>2.464533496383993</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <v>2.08</v>
-      </c>
-      <c r="C54">
-        <v>0.3880749286519623</v>
-      </c>
-      <c r="D54">
-        <v>0.05093438162568271</v>
-      </c>
-      <c r="E54">
-        <v>2.480323119826219</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>2.12</v>
-      </c>
-      <c r="C55">
-        <v>0.3893395626123697</v>
-      </c>
-      <c r="D55">
-        <v>0.03100179019766491</v>
-      </c>
-      <c r="E55">
-        <v>2.496064135065826</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <v>2.16</v>
-      </c>
-      <c r="C56">
-        <v>0.3890546440239031</v>
-      </c>
-      <c r="D56">
-        <v>0.08722245570473453</v>
-      </c>
-      <c r="E56">
-        <v>2.511756753345997</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <v>2.2</v>
-      </c>
-      <c r="C57">
-        <v>0.388196270067404</v>
-      </c>
-      <c r="D57">
-        <v>0.1207184461155992</v>
-      </c>
-      <c r="E57">
-        <v>2.527401184828296</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58">
-        <v>2.24</v>
-      </c>
-      <c r="C58">
-        <v>0.3872786406312727</v>
-      </c>
-      <c r="D58">
-        <v>0.1429555651346583</v>
-      </c>
-      <c r="E58">
-        <v>2.542997638597562</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <v>2.28</v>
-      </c>
-      <c r="C59">
-        <v>0.3863118307902931</v>
-      </c>
-      <c r="D59">
-        <v>0.1583409839235094</v>
-      </c>
-      <c r="E59">
-        <v>2.558546322666857</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>2.32</v>
-      </c>
-      <c r="C60">
-        <v>0.385424493842431</v>
-      </c>
-      <c r="D60">
-        <v>0.1675229232359925</v>
-      </c>
-      <c r="E60">
-        <v>2.574047443982397</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <v>2.36</v>
-      </c>
-      <c r="C61">
-        <v>0.3845680118064004</v>
-      </c>
-      <c r="D61">
-        <v>0.1739659153463057</v>
-      </c>
-      <c r="E61">
-        <v>2.589501208428509</v>
+        <v>353.6695008139247</v>
       </c>
     </row>
   </sheetData>
